--- a/Franz V/pythontrainingWeek1/PythonTraining1.xlsx
+++ b/Franz V/pythontrainingWeek1/PythonTraining1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/franz_jerimy_s_valois_gds_ey_com/Documents/Desktop/pythontrainingWeek1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F94BD17B-0F6C-48FA-B6A6-3BF49ABB12D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCFAAF4F-DAD8-4A8D-BFFA-308A13DA137A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F94BD17B-0F6C-48FA-B6A6-3BF49ABB12D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE06C49E-16B2-4E7C-9C8E-E98FC6FD66FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E1151075-AF34-44E9-AF6A-90B7F7B4D88C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
   <si>
     <t>Week 1</t>
   </si>
@@ -800,9 +800,6 @@
   </si>
   <si>
     <t>Case Scenario : Working with Cloud(ETL)</t>
-  </si>
-  <si>
-    <t>9//21//2024</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1486,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,14 +1571,14 @@
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>254</v>
+      <c r="J2" s="4">
+        <v>45556</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>254</v>
+      <c r="L2" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1612,14 +1609,14 @@
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>254</v>
+      <c r="J3" s="4">
+        <v>45556</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>254</v>
+      <c r="L3" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1650,14 +1647,14 @@
       <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>254</v>
+      <c r="J4" s="4">
+        <v>45556</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>254</v>
+      <c r="L4" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1688,14 +1685,14 @@
       <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>254</v>
+      <c r="J5" s="4">
+        <v>45556</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>254</v>
+      <c r="L5" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1726,14 +1723,14 @@
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>254</v>
+      <c r="J6" s="4">
+        <v>45556</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>254</v>
+      <c r="L6" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1764,14 +1761,14 @@
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>254</v>
+      <c r="J7" s="4">
+        <v>45556</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>254</v>
+      <c r="L7" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1802,14 +1799,14 @@
       <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>254</v>
+      <c r="J8" s="4">
+        <v>45556</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>254</v>
+      <c r="L8" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1840,14 +1837,14 @@
       <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>254</v>
+      <c r="J9" s="4">
+        <v>45556</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>254</v>
+      <c r="L9" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1878,14 +1875,14 @@
       <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>254</v>
+      <c r="J10" s="4">
+        <v>45556</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>254</v>
+      <c r="L10" s="4">
+        <v>45556</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1916,14 +1913,14 @@
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>254</v>
+      <c r="J11" s="4">
+        <v>45556</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>254</v>
+      <c r="L11" s="4">
+        <v>45556</v>
       </c>
     </row>
   </sheetData>
